--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.894</v>
+        <v>-12.406</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.534</v>
+        <v>6.247999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.036</v>
+        <v>-12.799</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.443999999999999</v>
+        <v>-8.309000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>13.036</v>
+        <v>13.078</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.826000000000001</v>
+        <v>-7.902000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.121</v>
       </c>
       <c r="E11" t="n">
-        <v>12.766</v>
+        <v>12.775</v>
       </c>
     </row>
     <row r="12">
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.7</v>
+        <v>6.331</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.7</v>
+        <v>5.914</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.232</v>
+        <v>-11.856</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.428000000000001</v>
+        <v>-7.828</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.238</v>
+        <v>12.756</v>
       </c>
     </row>
     <row r="20">
@@ -788,16 +788,16 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.004</v>
+        <v>6.434</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.682</v>
+        <v>-7.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.462</v>
+        <v>12.054</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>6.21</v>
+        <v>6.547</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.85</v>
+        <v>6.103999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
